--- a/UiPathBeginnersCourse/resources/student.xlsx
+++ b/UiPathBeginnersCourse/resources/student.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fasulu\Documents\UiPath\RPA-UiPathBeginnersCourse\UiPathBeginnersCourse\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E0BB15B-F1F2-4BE4-A9ED-56B5F57DBC20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D00590EF-575D-4408-BA2B-29DB3746AD3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="CopiedSheet" sheetId="8" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="9" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="CopiedSheet" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="32">
   <si>
     <t>Name</t>
   </si>
@@ -121,22 +122,19 @@
     <t>Average</t>
   </si>
   <si>
+    <t>Lewenski</t>
+  </si>
+  <si>
+    <t>Geneogology</t>
+  </si>
+  <si>
     <t>Hassan</t>
   </si>
   <si>
+    <t>Vladimir</t>
+  </si>
+  <si>
     <t>Haroon</t>
-  </si>
-  <si>
-    <t>Lewenski</t>
-  </si>
-  <si>
-    <t>Geneogology</t>
-  </si>
-  <si>
-    <t>Aeronotics</t>
-  </si>
-  <si>
-    <t>Vladimir</t>
   </si>
 </sst>
 </file>
@@ -701,7 +699,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="G12" sqref="A2:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -995,11 +993,378 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29C66967-B486-44F0-8CE3-798BFAE4854C}">
+  <dimension ref="A1:G16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="7">
+        <v>19</v>
+      </c>
+      <c r="D2" s="7">
+        <v>19</v>
+      </c>
+      <c r="E2" s="7">
+        <v>20</v>
+      </c>
+      <c r="F2" s="2">
+        <v>19.3333333333333</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="7">
+        <v>18</v>
+      </c>
+      <c r="D3" s="7">
+        <v>19</v>
+      </c>
+      <c r="E3" s="7">
+        <v>20</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="7">
+        <v>18</v>
+      </c>
+      <c r="D4" s="7">
+        <v>19</v>
+      </c>
+      <c r="E4" s="7">
+        <v>18.7</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="7">
+        <v>19</v>
+      </c>
+      <c r="D5" s="7">
+        <v>20</v>
+      </c>
+      <c r="E5" s="7">
+        <v>19.5</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="7">
+        <v>18</v>
+      </c>
+      <c r="D6" s="7">
+        <v>19</v>
+      </c>
+      <c r="E6" s="7">
+        <v>20</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="7">
+        <v>18</v>
+      </c>
+      <c r="D7" s="7">
+        <v>18</v>
+      </c>
+      <c r="E7" s="7">
+        <v>18</v>
+      </c>
+      <c r="F7" s="2">
+        <v>18</v>
+      </c>
+      <c r="G7" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="7">
+        <v>15</v>
+      </c>
+      <c r="D8" s="7">
+        <v>17</v>
+      </c>
+      <c r="E8" s="7">
+        <v>18</v>
+      </c>
+      <c r="F8" s="2">
+        <v>16.6666666666667</v>
+      </c>
+      <c r="G8" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="7">
+        <v>14</v>
+      </c>
+      <c r="D9" s="7">
+        <v>13</v>
+      </c>
+      <c r="E9" s="7">
+        <v>19</v>
+      </c>
+      <c r="F9" s="2">
+        <v>15.3333333333333</v>
+      </c>
+      <c r="G9" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="7">
+        <v>17</v>
+      </c>
+      <c r="D10" s="7">
+        <v>15</v>
+      </c>
+      <c r="E10" s="7">
+        <v>18</v>
+      </c>
+      <c r="F10" s="2">
+        <v>16.6666666666667</v>
+      </c>
+      <c r="G10" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="7">
+        <v>18</v>
+      </c>
+      <c r="D11" s="7">
+        <v>15</v>
+      </c>
+      <c r="E11" s="7">
+        <v>18</v>
+      </c>
+      <c r="F11" s="2">
+        <v>17</v>
+      </c>
+      <c r="G11" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="7">
+        <v>17</v>
+      </c>
+      <c r="D12" s="7">
+        <v>18</v>
+      </c>
+      <c r="E12" s="7">
+        <v>19</v>
+      </c>
+      <c r="F12" s="2">
+        <v>18</v>
+      </c>
+      <c r="G12" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="7">
+        <v>15</v>
+      </c>
+      <c r="D13" s="7">
+        <v>10</v>
+      </c>
+      <c r="E13" s="7">
+        <v>18</v>
+      </c>
+      <c r="F13" s="2">
+        <v>14.3333333333333</v>
+      </c>
+      <c r="G13" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="7">
+        <v>10</v>
+      </c>
+      <c r="D14" s="7">
+        <v>15</v>
+      </c>
+      <c r="E14" s="7">
+        <v>19</v>
+      </c>
+      <c r="F14" s="2">
+        <v>14.6666666666667</v>
+      </c>
+      <c r="G14" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="7">
+        <v>12</v>
+      </c>
+      <c r="D15" s="7">
+        <v>13</v>
+      </c>
+      <c r="E15" s="7">
+        <v>15</v>
+      </c>
+      <c r="F15" s="2">
+        <v>13.3333333333333</v>
+      </c>
+      <c r="G15" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="8">
+        <v>2</v>
+      </c>
+      <c r="D16" s="8">
+        <v>5</v>
+      </c>
+      <c r="E16" s="8">
+        <v>4</v>
+      </c>
+      <c r="F16" s="2">
+        <v>3.6666666666666701</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B72532A2-C3C2-405F-BCE1-579F16A74193}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1032,10 +1397,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2" s="10">
         <v>18</v>
@@ -1051,60 +1416,54 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="10">
-        <v>19.5</v>
-      </c>
-      <c r="D3" s="10">
-        <v>18.5</v>
-      </c>
-      <c r="E3" s="10">
-        <v>19.5</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="3"/>
+        <v>17</v>
+      </c>
+      <c r="C3">
+        <v>18</v>
+      </c>
+      <c r="D3">
+        <v>19</v>
+      </c>
+      <c r="E3">
+        <v>18.7</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="10">
-        <v>19</v>
-      </c>
-      <c r="D4" s="10">
+        <v>19</v>
+      </c>
+      <c r="C4">
+        <v>19</v>
+      </c>
+      <c r="D4">
         <v>20</v>
       </c>
-      <c r="E4" s="10">
-        <v>20</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="3"/>
+      <c r="E4">
+        <v>19.5</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="10">
-        <v>19.5</v>
-      </c>
-      <c r="D5" s="10">
+      <c r="C5">
+        <v>18</v>
+      </c>
+      <c r="D5">
+        <v>19</v>
+      </c>
+      <c r="E5">
         <v>20</v>
       </c>
-      <c r="E5" s="10">
-        <v>20</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1112,7 +1471,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51D0D904-0EFC-4A07-A959-2FE47D0AB604}">
   <dimension ref="A1:G11"/>
   <sheetViews>
